--- a/biology/Écologie/Maxime_Guillaume/Maxime_Guillaume.xlsx
+++ b/biology/Écologie/Maxime_Guillaume/Maxime_Guillaume.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maxime Guillaume (né à Saint-Aubin dans l'Indre le 3 décembre 1888[1] et mort à Bourges le 6 avril 1976[2]) est un ingénieur des Arts et Métiers spécialisé en agronomie et inventeur français.
-Il est le premier, en France, à déposer le 3 mai 1921 un brevet d'invention identifié sous le numéro 534 801 concernant la « propulsion par réaction sur l'air », brevet qu'il obtient le 13 janvier 1922, alors qu'il réside dans la Meuse[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maxime Guillaume (né à Saint-Aubin dans l'Indre le 3 décembre 1888 et mort à Bourges le 6 avril 1976) est un ingénieur des Arts et Métiers spécialisé en agronomie et inventeur français.
+Il est le premier, en France, à déposer le 3 mai 1921 un brevet d'invention identifié sous le numéro 534 801 concernant la « propulsion par réaction sur l'air », brevet qu'il obtient le 13 janvier 1922, alors qu'il réside dans la Meuse.
 Il a longtemps travaillé au Maroc (notamment dans la ville de Safi) dans le domaine de l'agriculture, travail qui lui inspira, durant sa retraite, un livre dénommé Le sol fait le climat, édité et paru en France en 1970.
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Carrière professionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maxime Guillaume fut directeur de la coopérative de Safi et auparavant inspecteur des plantations et de la restauration des sols du territoire de Safi, ville portuaire marocaine, située au sud de Casablanca[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maxime Guillaume fut directeur de la coopérative de Safi et auparavant inspecteur des plantations et de la restauration des sols du territoire de Safi, ville portuaire marocaine, située au sud de Casablanca.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Un des initiateurs du moteur à réaction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Inspiré par les créations de l'ingénieur roumain Henri Coandă sur propulsion réactive en aéronautique, il est le premier inventeur français à déposer un brevet sur la conception d'un turboréacteur qu'il dénomme « propulsion par réaction sur l'air ».
-Cependant le dépôt de cette brevet d'invention ne sera suivi d'aucune construction, car celle-ci aurait nécessité d'importantes avancées techniques sur les compresseurs et les matériaux, cette invention sera reprise, puis développée, par deux autres ingénieurs durant les années 1930. Il s'agit de Frank Whittle, exerçant au Royaume-Uni et Hans von Ohain, exerçant en Allemagne[5].
+Cependant le dépôt de cette brevet d'invention ne sera suivi d'aucune construction, car celle-ci aurait nécessité d'importantes avancées techniques sur les compresseurs et les matériaux, cette invention sera reprise, puis développée, par deux autres ingénieurs durant les années 1930. Il s'agit de Frank Whittle, exerçant au Royaume-Uni et Hans von Ohain, exerçant en Allemagne.
 </t>
         </is>
       </c>
@@ -576,14 +592,16 @@
           <t>Un visionnaire du dérèglement climatique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Dans un livre publié en 1970 et dénommé Le sol fait le climat (sous titré vers la fertilité maximum et le climat optimum par une agriculture naturelle)[6], Guillaume Maxime qui a étudié le désert du Sahara lors de son séjour au Maroc, évoque l'importance de la nature du sol et son influence sur le climat de la planète. Son étude porte essentiellement sur les relations de l'Homme et son influence sur le climat dans sa façon d'exploiter le sol, notamment avec les déforestions successives et l'expansion de l'agriculture. Dans les pages de présentation du livre, on peut notamment découvrir ce passage[7] : 
+Dans un livre publié en 1970 et dénommé Le sol fait le climat (sous titré vers la fertilité maximum et le climat optimum par une agriculture naturelle), Guillaume Maxime qui a étudié le désert du Sahara lors de son séjour au Maroc, évoque l'importance de la nature du sol et son influence sur le climat de la planète. Son étude porte essentiellement sur les relations de l'Homme et son influence sur le climat dans sa façon d'exploiter le sol, notamment avec les déforestions successives et l'expansion de l'agriculture. Dans les pages de présentation du livre, on peut notamment découvrir ce passage : 
 « L'état du sol et la manière dont il est entretenu et cultivés sont des facteurs essentiels qui déterminent le régime des vents, des pluies, donc des eaux. Déboiser, dénuder inconsidérément le sol, faire appel à certaines méthodes de culture, d'élevage et de pâturage, brûler les pailles conduit à déséquilibrer le climat. Par une sorte d'effet-boomerang, une région, un pays se transforme, dès lors, progressivement en désert. »
-L'ingénieur agronome explique également dans son ouvrage que si l'homme reverdissait des zones désertiques en utilisant l'irrigation et une importante opération de semis (qui selon lui, serait moins onéreuse que des guerres), l'humus se reformerait et des pluies régulières reviendraient. Guillaume précise cependant qu'il faudrait laisser à l'herbe son rôle premier, nourrir le sol, et non pas l'exploiter immédiatement[8]. Son ouvrage est cité dans le livre de l'écrivain-agriculteur britannique Victor Bonham-Carter, publié en 1973 et dénommé Land and Environment : The Survival of the English Countryside[9].
-Concernant la mise en place de projet face à la lutte contre le réchauffement climatique, l'idée d'irrigation du désert émise par Maxime Guillaume a été reprise[citation nécessaire] en 2009 par Leonard Ornstein, un biologiste de l'école de médecine du Mont Sinaï en Israel en collaboration avec David Rind et Igor Aleinov, du Goddard Institute for Space Studies, dépendant de la Nasa[10].
-En 2013, le 14e dalaï-lama évoque son rêve de cultiver le Sahara en utilisant des panneaux solaires pour désaliniser de l’eau de mer et la transporter[11],[12].
+L'ingénieur agronome explique également dans son ouvrage que si l'homme reverdissait des zones désertiques en utilisant l'irrigation et une importante opération de semis (qui selon lui, serait moins onéreuse que des guerres), l'humus se reformerait et des pluies régulières reviendraient. Guillaume précise cependant qu'il faudrait laisser à l'herbe son rôle premier, nourrir le sol, et non pas l'exploiter immédiatement. Son ouvrage est cité dans le livre de l'écrivain-agriculteur britannique Victor Bonham-Carter, publié en 1973 et dénommé Land and Environment : The Survival of the English Countryside.
+Concernant la mise en place de projet face à la lutte contre le réchauffement climatique, l'idée d'irrigation du désert émise par Maxime Guillaume a été reprise[citation nécessaire] en 2009 par Leonard Ornstein, un biologiste de l'école de médecine du Mont Sinaï en Israel en collaboration avec David Rind et Igor Aleinov, du Goddard Institute for Space Studies, dépendant de la Nasa.
+En 2013, le 14e dalaï-lama évoque son rêve de cultiver le Sahara en utilisant des panneaux solaires pour désaliniser de l’eau de mer et la transporter,.
 </t>
         </is>
       </c>
@@ -612,10 +630,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur
- Chevalier de l'ordre du Ouissam alaouite [13].</t>
+ Chevalier de l'ordre du Ouissam alaouite .</t>
         </is>
       </c>
     </row>
